--- a/biology/Botanique/Barbarea_verna/Barbarea_verna.xlsx
+++ b/biology/Botanique/Barbarea_verna/Barbarea_verna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbarea verna, le cresson de terre, le cresson de jardin ou la barbarée printanière, est une espèce de plantes à fleurs de la famille des Brassicaceae. C'est une plante herbacée cultivée et consommée en salade.
 Il ne doit pas être confondu avec les autres sortes de cressons, notamment avec le cresson de fontaine ou avec le cresson alénois (Lepidium sativum).
 Le cresson de terre est originaire d'Europe du Sud et de Turquie.
-Une personne qui cultive du cresson est un cressiculteur[1].
+Une personne qui cultive du cresson est un cressiculteur.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Barbarea praecox (Sm.) R.Br.
 Erysimum vernum Mill.</t>
